--- a/results.xlsx
+++ b/results.xlsx
@@ -2966,12 +2966,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2986,9 +2992,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3271,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L53" sqref="L1:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,6 +3302,7 @@
       <c r="B1" s="1">
         <v>50</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" t="s">
         <v>6</v>
       </c>
@@ -3301,6 +3310,7 @@
         <v>50</v>
       </c>
       <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" t="s">
         <v>6</v>
       </c>
@@ -3308,6 +3318,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3316,6 +3327,7 @@
       <c r="B2" s="1">
         <v>10000</v>
       </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -3323,6 +3335,7 @@
         <v>5000</v>
       </c>
       <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
       <c r="I2" t="s">
         <v>7</v>
       </c>
@@ -3330,6 +3343,7 @@
         <v>2000</v>
       </c>
       <c r="K2" s="1"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3339,6 +3353,7 @@
         <f>AVERAGE(4250, 5017, 4595,4648)</f>
         <v>4627.5</v>
       </c>
+      <c r="D3" s="2"/>
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -3347,6 +3362,7 @@
         <v>1200.75</v>
       </c>
       <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
       <c r="I3" t="s">
         <v>0</v>
       </c>
@@ -3355,6 +3371,7 @@
         <v>215.25</v>
       </c>
       <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3364,6 +3381,7 @@
         <f>AVERAGE(44, 14, 41, 7)</f>
         <v>26.5</v>
       </c>
+      <c r="D4" s="2"/>
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -3372,6 +3390,7 @@
         <v>3.25</v>
       </c>
       <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
       <c r="I4" t="s">
         <v>1</v>
       </c>
@@ -3380,6 +3399,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3389,6 +3409,7 @@
         <f>AVERAGE(434422, 171391, 158809, 431883)</f>
         <v>299126.25</v>
       </c>
+      <c r="D5" s="2"/>
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -3397,6 +3418,7 @@
         <v>23680</v>
       </c>
       <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
       <c r="I5" t="s">
         <v>2</v>
       </c>
@@ -3405,6 +3427,7 @@
         <v>2573.75</v>
       </c>
       <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3418,6 +3441,7 @@
         <f>AVERAGE(120889, 115611)</f>
         <v>118250</v>
       </c>
+      <c r="D6" s="2"/>
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -3429,6 +3453,7 @@
         <f>AVERAGE(45932,45601)</f>
         <v>45766.5</v>
       </c>
+      <c r="H6" s="2"/>
       <c r="I6" t="s">
         <v>3</v>
       </c>
@@ -3440,6 +3465,7 @@
         <f>AVERAGE(2815,2802)</f>
         <v>2808.5</v>
       </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3451,6 +3477,7 @@
       <c r="C7" s="1">
         <v>266303</v>
       </c>
+      <c r="D7" s="2"/>
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -3460,6 +3487,7 @@
       <c r="G7" s="1">
         <v>47050</v>
       </c>
+      <c r="H7" s="2"/>
       <c r="I7" t="s">
         <v>4</v>
       </c>
@@ -3469,6 +3497,7 @@
       <c r="K7" s="1">
         <v>2590</v>
       </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3480,6 +3509,7 @@
       <c r="C8" s="1">
         <v>280116</v>
       </c>
+      <c r="D8" s="2"/>
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -3489,6 +3519,7 @@
       <c r="G8" s="1">
         <v>51297</v>
       </c>
+      <c r="H8" s="2"/>
       <c r="I8" t="s">
         <v>5</v>
       </c>
@@ -3498,6 +3529,24 @@
       <c r="K8" s="1">
         <v>3710</v>
       </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3506,6 +3555,7 @@
       <c r="B10" s="1">
         <v>40</v>
       </c>
+      <c r="D10" s="2"/>
       <c r="E10" t="s">
         <v>6</v>
       </c>
@@ -3513,6 +3563,7 @@
         <v>40</v>
       </c>
       <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
       </c>
@@ -3520,6 +3571,7 @@
         <v>40</v>
       </c>
       <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
       <c r="M10" t="s">
         <v>6</v>
       </c>
@@ -3535,6 +3587,7 @@
       <c r="B11" s="1">
         <v>2500</v>
       </c>
+      <c r="D11" s="2"/>
       <c r="E11" t="s">
         <v>7</v>
       </c>
@@ -3542,6 +3595,7 @@
         <v>2000</v>
       </c>
       <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
       <c r="I11" t="s">
         <v>7</v>
       </c>
@@ -3549,6 +3603,7 @@
         <v>1500</v>
       </c>
       <c r="K11" s="1"/>
+      <c r="L11" s="2"/>
       <c r="M11" t="s">
         <v>7</v>
       </c>
@@ -3565,6 +3620,7 @@
         <f>AVERAGE(362,269,352,336)</f>
         <v>329.75</v>
       </c>
+      <c r="D12" s="2"/>
       <c r="E12" t="s">
         <v>0</v>
       </c>
@@ -3573,6 +3629,7 @@
         <v>220.25</v>
       </c>
       <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
       <c r="I12" t="s">
         <v>0</v>
       </c>
@@ -3581,6 +3638,7 @@
         <v>138.25</v>
       </c>
       <c r="K12" s="1"/>
+      <c r="L12" s="2"/>
       <c r="M12" t="s">
         <v>0</v>
       </c>
@@ -3598,6 +3656,7 @@
         <f>AVERAGE(1,2,1,1)</f>
         <v>1.25</v>
       </c>
+      <c r="D13" s="2"/>
       <c r="E13" t="s">
         <v>1</v>
       </c>
@@ -3606,6 +3665,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
       <c r="I13" t="s">
         <v>1</v>
       </c>
@@ -3614,6 +3674,7 @@
         <v>0.75</v>
       </c>
       <c r="K13" s="1"/>
+      <c r="L13" s="2"/>
       <c r="M13" t="s">
         <v>1</v>
       </c>
@@ -3631,6 +3692,7 @@
         <f>AVERAGE(4224,4312,4198,4234)</f>
         <v>4242</v>
       </c>
+      <c r="D14" s="2"/>
       <c r="E14" t="s">
         <v>2</v>
       </c>
@@ -3639,6 +3701,7 @@
         <v>2556</v>
       </c>
       <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
       <c r="I14" t="s">
         <v>2</v>
       </c>
@@ -3647,6 +3710,7 @@
         <v>1255</v>
       </c>
       <c r="K14" s="1"/>
+      <c r="L14" s="2"/>
       <c r="M14" t="s">
         <v>2</v>
       </c>
@@ -3668,6 +3732,7 @@
         <f>AVERAGE(8138,8164)</f>
         <v>8151</v>
       </c>
+      <c r="D15" s="2"/>
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -3679,6 +3744,7 @@
         <f>AVERAGE(4080,4080)</f>
         <v>4080</v>
       </c>
+      <c r="H15" s="2"/>
       <c r="I15" t="s">
         <v>3</v>
       </c>
@@ -3690,6 +3756,7 @@
         <f>AVERAGE(2003,2071)</f>
         <v>2037</v>
       </c>
+      <c r="L15" s="2"/>
       <c r="M15" t="s">
         <v>3</v>
       </c>
@@ -3712,6 +3779,7 @@
       <c r="C16" s="1">
         <v>5295</v>
       </c>
+      <c r="D16" s="2"/>
       <c r="E16" t="s">
         <v>4</v>
       </c>
@@ -3721,6 +3789,7 @@
       <c r="G16" s="1">
         <v>3439</v>
       </c>
+      <c r="H16" s="2"/>
       <c r="I16" t="s">
         <v>4</v>
       </c>
@@ -3730,6 +3799,7 @@
       <c r="K16" s="1">
         <v>1241</v>
       </c>
+      <c r="L16" s="2"/>
       <c r="M16" t="s">
         <v>4</v>
       </c>
@@ -3750,6 +3820,7 @@
       <c r="C17" s="1">
         <v>7285</v>
       </c>
+      <c r="D17" s="2"/>
       <c r="E17" t="s">
         <v>5</v>
       </c>
@@ -3759,6 +3830,7 @@
       <c r="G17" s="1">
         <v>5651</v>
       </c>
+      <c r="H17" s="2"/>
       <c r="I17" t="s">
         <v>5</v>
       </c>
@@ -3768,6 +3840,7 @@
       <c r="K17" s="1">
         <v>1374</v>
       </c>
+      <c r="L17" s="2"/>
       <c r="M17" t="s">
         <v>5</v>
       </c>
@@ -3777,6 +3850,23 @@
       <c r="O17" s="1">
         <v>607</v>
       </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3785,6 +3875,7 @@
       <c r="B19" s="1">
         <v>30</v>
       </c>
+      <c r="D19" s="2"/>
       <c r="E19" t="s">
         <v>6</v>
       </c>
@@ -3792,6 +3883,7 @@
         <v>30</v>
       </c>
       <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
       <c r="I19" t="s">
         <v>6</v>
       </c>
@@ -3799,6 +3891,7 @@
         <v>30</v>
       </c>
       <c r="K19" s="1"/>
+      <c r="L19" s="2"/>
       <c r="M19" t="s">
         <v>6</v>
       </c>
@@ -3814,6 +3907,7 @@
       <c r="B20" s="1">
         <v>2500</v>
       </c>
+      <c r="D20" s="2"/>
       <c r="E20" t="s">
         <v>7</v>
       </c>
@@ -3821,6 +3915,7 @@
         <v>2000</v>
       </c>
       <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
       <c r="I20" t="s">
         <v>7</v>
       </c>
@@ -3828,6 +3923,7 @@
         <v>1500</v>
       </c>
       <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
       <c r="M20" t="s">
         <v>7</v>
       </c>
@@ -3844,6 +3940,7 @@
         <f>AVERAGE(410,297,301,273)</f>
         <v>320.25</v>
       </c>
+      <c r="D21" s="2"/>
       <c r="E21" t="s">
         <v>0</v>
       </c>
@@ -3852,6 +3949,7 @@
         <v>216.25</v>
       </c>
       <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
       <c r="I21" t="s">
         <v>0</v>
       </c>
@@ -3860,6 +3958,7 @@
         <v>111.5</v>
       </c>
       <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
       <c r="M21" t="s">
         <v>0</v>
       </c>
@@ -3877,6 +3976,7 @@
         <f>AVERAGE(1,2,2,1)</f>
         <v>1.5</v>
       </c>
+      <c r="D22" s="2"/>
       <c r="E22" t="s">
         <v>1</v>
       </c>
@@ -3885,6 +3985,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
       <c r="I22" t="s">
         <v>1</v>
       </c>
@@ -3893,6 +3994,7 @@
         <v>0.75</v>
       </c>
       <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
       <c r="M22" t="s">
         <v>1</v>
       </c>
@@ -3910,6 +4012,7 @@
         <f>AVERAGE(3024,3007,3037,3021)</f>
         <v>3022.25</v>
       </c>
+      <c r="D23" s="2"/>
       <c r="E23" t="s">
         <v>2</v>
       </c>
@@ -3918,6 +4021,7 @@
         <v>2176.75</v>
       </c>
       <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
       <c r="I23" t="s">
         <v>2</v>
       </c>
@@ -3926,6 +4030,7 @@
         <v>924</v>
       </c>
       <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
       <c r="M23" t="s">
         <v>2</v>
       </c>
@@ -3947,6 +4052,7 @@
         <f>AVERAGE(5436,5354)</f>
         <v>5395</v>
       </c>
+      <c r="D24" s="2"/>
       <c r="E24" t="s">
         <v>3</v>
       </c>
@@ -3958,6 +4064,7 @@
         <f>AVERAGE(4304,4226)</f>
         <v>4265</v>
       </c>
+      <c r="H24" s="2"/>
       <c r="I24" t="s">
         <v>3</v>
       </c>
@@ -3969,6 +4076,7 @@
         <f>AVERAGE(2171,928)</f>
         <v>1549.5</v>
       </c>
+      <c r="L24" s="2"/>
       <c r="M24" t="s">
         <v>3</v>
       </c>
@@ -3991,6 +4099,7 @@
       <c r="C25" s="1">
         <v>5187</v>
       </c>
+      <c r="D25" s="2"/>
       <c r="E25" t="s">
         <v>4</v>
       </c>
@@ -4000,6 +4109,7 @@
       <c r="G25" s="1">
         <v>2807</v>
       </c>
+      <c r="H25" s="2"/>
       <c r="I25" t="s">
         <v>4</v>
       </c>
@@ -4009,6 +4119,7 @@
       <c r="K25" s="1">
         <v>1082</v>
       </c>
+      <c r="L25" s="2"/>
       <c r="M25" t="s">
         <v>4</v>
       </c>
@@ -4029,6 +4140,7 @@
       <c r="C26" s="1">
         <v>5433</v>
       </c>
+      <c r="D26" s="2"/>
       <c r="E26" t="s">
         <v>5</v>
       </c>
@@ -4038,6 +4150,7 @@
       <c r="G26" s="1">
         <v>2467</v>
       </c>
+      <c r="H26" s="2"/>
       <c r="I26" t="s">
         <v>5</v>
       </c>
@@ -4047,6 +4160,7 @@
       <c r="K26" s="1">
         <v>1257</v>
       </c>
+      <c r="L26" s="2"/>
       <c r="M26" t="s">
         <v>5</v>
       </c>
@@ -4056,6 +4170,23 @@
       <c r="O26" s="1">
         <v>487</v>
       </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4064,6 +4195,7 @@
       <c r="B28" s="1">
         <v>20</v>
       </c>
+      <c r="D28" s="2"/>
       <c r="E28" t="s">
         <v>6</v>
       </c>
@@ -4071,6 +4203,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
       <c r="I28" t="s">
         <v>6</v>
       </c>
@@ -4078,6 +4211,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4086,6 +4220,7 @@
       <c r="B29" s="1">
         <v>1500</v>
       </c>
+      <c r="D29" s="2"/>
       <c r="E29" t="s">
         <v>7</v>
       </c>
@@ -4093,6 +4228,7 @@
         <v>1000</v>
       </c>
       <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
       <c r="I29" t="s">
         <v>7</v>
       </c>
@@ -4100,6 +4236,7 @@
         <v>750</v>
       </c>
       <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4109,6 +4246,7 @@
         <f>AVERAGE(284,101,151,96)</f>
         <v>158</v>
       </c>
+      <c r="D30" s="2"/>
       <c r="E30" t="s">
         <v>0</v>
       </c>
@@ -4117,6 +4255,7 @@
         <v>74.75</v>
       </c>
       <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
       <c r="I30" t="s">
         <v>0</v>
       </c>
@@ -4125,6 +4264,7 @@
         <v>54</v>
       </c>
       <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4134,6 +4274,7 @@
         <f>AVERAGE(1,1,1,16)</f>
         <v>4.75</v>
       </c>
+      <c r="D31" s="2"/>
       <c r="E31" t="s">
         <v>1</v>
       </c>
@@ -4142,6 +4283,7 @@
         <v>1.5</v>
       </c>
       <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
       <c r="I31" t="s">
         <v>1</v>
       </c>
@@ -4150,6 +4292,7 @@
         <v>0.25</v>
       </c>
       <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4159,6 +4302,7 @@
         <f>AVERAGE(5982,5820,5906,5879)</f>
         <v>5896.75</v>
       </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s">
         <v>2</v>
       </c>
@@ -4167,6 +4311,7 @@
         <v>265</v>
       </c>
       <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
       <c r="I32" t="s">
         <v>2</v>
       </c>
@@ -4175,8 +4320,9 @@
         <v>148</v>
       </c>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -4188,6 +4334,7 @@
         <f>AVERAGE(2300,2267)</f>
         <v>2283.5</v>
       </c>
+      <c r="D33" s="2"/>
       <c r="E33" t="s">
         <v>3</v>
       </c>
@@ -4199,6 +4346,7 @@
         <f>AVERAGE(307,318)</f>
         <v>312.5</v>
       </c>
+      <c r="H33" s="2"/>
       <c r="I33" t="s">
         <v>3</v>
       </c>
@@ -4210,8 +4358,9 @@
         <f>AVERAGE(115,114)</f>
         <v>114.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4221,6 +4370,7 @@
       <c r="C34" s="1">
         <v>2061</v>
       </c>
+      <c r="D34" s="2"/>
       <c r="E34" t="s">
         <v>4</v>
       </c>
@@ -4230,6 +4380,7 @@
       <c r="G34" s="1">
         <v>320</v>
       </c>
+      <c r="H34" s="2"/>
       <c r="I34" t="s">
         <v>4</v>
       </c>
@@ -4239,8 +4390,9 @@
       <c r="K34" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -4250,6 +4402,7 @@
       <c r="C35" s="1">
         <v>2392</v>
       </c>
+      <c r="D35" s="2"/>
       <c r="E35" t="s">
         <v>5</v>
       </c>
@@ -4259,6 +4412,7 @@
       <c r="G35" s="1">
         <v>316</v>
       </c>
+      <c r="H35" s="2"/>
       <c r="I35" t="s">
         <v>5</v>
       </c>
@@ -4268,14 +4422,33 @@
       <c r="K35" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="1">
         <v>15</v>
       </c>
+      <c r="D37" s="2"/>
       <c r="E37" t="s">
         <v>6</v>
       </c>
@@ -4283,6 +4456,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="1"/>
+      <c r="H37" s="2"/>
       <c r="I37" t="s">
         <v>6</v>
       </c>
@@ -4290,14 +4464,16 @@
         <v>15</v>
       </c>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>1000</v>
       </c>
+      <c r="D38" s="2"/>
       <c r="E38" t="s">
         <v>7</v>
       </c>
@@ -4305,6 +4481,7 @@
         <v>750</v>
       </c>
       <c r="G38" s="1"/>
+      <c r="H38" s="2"/>
       <c r="I38" t="s">
         <v>7</v>
       </c>
@@ -4312,8 +4489,9 @@
         <v>500</v>
       </c>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4321,6 +4499,7 @@
         <f>AVERAGE(152,74,77,110)</f>
         <v>103.25</v>
       </c>
+      <c r="D39" s="2"/>
       <c r="E39" t="s">
         <v>0</v>
       </c>
@@ -4329,6 +4508,7 @@
         <v>42.75</v>
       </c>
       <c r="G39" s="1"/>
+      <c r="H39" s="2"/>
       <c r="I39" t="s">
         <v>0</v>
       </c>
@@ -4337,8 +4517,9 @@
         <v>50</v>
       </c>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -4346,6 +4527,7 @@
         <f>AVERAGE(14,7,3,2)</f>
         <v>6.5</v>
       </c>
+      <c r="D40" s="2"/>
       <c r="E40" t="s">
         <v>1</v>
       </c>
@@ -4354,6 +4536,7 @@
         <v>0.25</v>
       </c>
       <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
       <c r="I40" t="s">
         <v>1</v>
       </c>
@@ -4362,8 +4545,9 @@
         <v>0.25</v>
       </c>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -4371,6 +4555,7 @@
         <f>AVERAGE(667,583,242,231)</f>
         <v>430.75</v>
       </c>
+      <c r="D41" s="2"/>
       <c r="E41" t="s">
         <v>2</v>
       </c>
@@ -4379,6 +4564,7 @@
         <v>111</v>
       </c>
       <c r="G41" s="1"/>
+      <c r="H41" s="2"/>
       <c r="I41" t="s">
         <v>2</v>
       </c>
@@ -4387,8 +4573,9 @@
         <v>49.25</v>
       </c>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -4400,6 +4587,7 @@
         <f>AVERAGE(812,251)</f>
         <v>531.5</v>
       </c>
+      <c r="D42" s="2"/>
       <c r="E42" t="s">
         <v>3</v>
       </c>
@@ -4411,6 +4599,7 @@
         <f>AVERAGE(146,111)</f>
         <v>128.5</v>
       </c>
+      <c r="H42" s="2"/>
       <c r="I42" t="s">
         <v>3</v>
       </c>
@@ -4422,8 +4611,9 @@
         <f>AVERAGE(102,87)</f>
         <v>94.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4433,6 +4623,7 @@
       <c r="C43" s="1">
         <v>442</v>
       </c>
+      <c r="D43" s="2"/>
       <c r="E43" t="s">
         <v>4</v>
       </c>
@@ -4442,6 +4633,7 @@
       <c r="G43" s="1">
         <v>109</v>
       </c>
+      <c r="H43" s="2"/>
       <c r="I43" t="s">
         <v>4</v>
       </c>
@@ -4451,8 +4643,9 @@
       <c r="K43" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -4462,6 +4655,7 @@
       <c r="C44" s="1">
         <v>328</v>
       </c>
+      <c r="D44" s="2"/>
       <c r="E44" t="s">
         <v>5</v>
       </c>
@@ -4471,6 +4665,7 @@
       <c r="G44" s="1">
         <v>122</v>
       </c>
+      <c r="H44" s="2"/>
       <c r="I44" t="s">
         <v>5</v>
       </c>
@@ -4480,14 +4675,33 @@
       <c r="K44" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="1">
         <v>10</v>
       </c>
+      <c r="D46" s="2"/>
       <c r="E46" t="s">
         <v>6</v>
       </c>
@@ -4495,6 +4709,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
       <c r="I46" t="s">
         <v>6</v>
       </c>
@@ -4502,14 +4717,16 @@
         <v>10</v>
       </c>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="1">
         <v>500</v>
       </c>
+      <c r="D47" s="2"/>
       <c r="E47" t="s">
         <v>7</v>
       </c>
@@ -4517,6 +4734,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="1"/>
+      <c r="H47" s="2"/>
       <c r="I47" t="s">
         <v>7</v>
       </c>
@@ -4524,8 +4742,9 @@
         <v>100</v>
       </c>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4533,6 +4752,7 @@
         <f>AVERAGE(17,17,20,23)</f>
         <v>19.25</v>
       </c>
+      <c r="D48" s="2"/>
       <c r="E48" t="s">
         <v>0</v>
       </c>
@@ -4540,6 +4760,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="1"/>
+      <c r="H48" s="2"/>
       <c r="I48" t="s">
         <v>0</v>
       </c>
@@ -4547,14 +4768,16 @@
         <v>7</v>
       </c>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
       </c>
+      <c r="D49" s="2"/>
       <c r="E49" t="s">
         <v>1</v>
       </c>
@@ -4562,6 +4785,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="1"/>
+      <c r="H49" s="2"/>
       <c r="I49" t="s">
         <v>1</v>
       </c>
@@ -4569,8 +4793,9 @@
         <v>0</v>
       </c>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4578,6 +4803,7 @@
         <f>AVERAGE(46,40,40,41)</f>
         <v>41.75</v>
       </c>
+      <c r="D50" s="2"/>
       <c r="E50" t="s">
         <v>2</v>
       </c>
@@ -4585,6 +4811,7 @@
         <v>9</v>
       </c>
       <c r="G50" s="1"/>
+      <c r="H50" s="2"/>
       <c r="I50" t="s">
         <v>2</v>
       </c>
@@ -4592,8 +4819,9 @@
         <v>4</v>
       </c>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -4604,6 +4832,7 @@
         <f>AVERAGE(49,42)</f>
         <v>45.5</v>
       </c>
+      <c r="D51" s="2"/>
       <c r="E51" t="s">
         <v>3</v>
       </c>
@@ -4613,6 +4842,7 @@
       <c r="G51" s="1">
         <v>15</v>
       </c>
+      <c r="H51" s="2"/>
       <c r="I51" t="s">
         <v>3</v>
       </c>
@@ -4622,8 +4852,9 @@
       <c r="K51" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -4633,6 +4864,7 @@
       <c r="C52" s="1">
         <v>42</v>
       </c>
+      <c r="D52" s="2"/>
       <c r="E52" t="s">
         <v>4</v>
       </c>
@@ -4642,6 +4874,7 @@
       <c r="G52" s="1">
         <v>14</v>
       </c>
+      <c r="H52" s="2"/>
       <c r="I52" t="s">
         <v>4</v>
       </c>
@@ -4651,8 +4884,9 @@
       <c r="K52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -4662,6 +4896,7 @@
       <c r="C53" s="1">
         <v>45</v>
       </c>
+      <c r="D53" s="2"/>
       <c r="E53" t="s">
         <v>5</v>
       </c>
@@ -4671,6 +4906,7 @@
       <c r="G53" s="1">
         <v>15</v>
       </c>
+      <c r="H53" s="2"/>
       <c r="I53" t="s">
         <v>5</v>
       </c>
@@ -4680,6 +4916,7 @@
       <c r="K53" s="1">
         <v>8</v>
       </c>
+      <c r="L53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -3279,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L53" sqref="L1:L53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,6 +3302,9 @@
       <c r="B1" s="1">
         <v>50</v>
       </c>
+      <c r="C1" s="1">
+        <v>4381</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" t="s">
         <v>6</v>
@@ -3309,7 +3312,9 @@
       <c r="F1" s="1">
         <v>50</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1">
+        <v>3188</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" t="s">
         <v>6</v>
@@ -3317,7 +3322,9 @@
       <c r="J1" s="1">
         <v>50</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1">
+        <v>1577</v>
+      </c>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3327,6 +3334,9 @@
       <c r="B2" s="1">
         <v>10000</v>
       </c>
+      <c r="C2" s="1">
+        <v>14143</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>7</v>
@@ -3334,7 +3344,9 @@
       <c r="F2" s="1">
         <v>5000</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>8046</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
         <v>7</v>
@@ -3342,7 +3354,9 @@
       <c r="J2" s="1">
         <v>2000</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1">
+        <v>3473</v>
+      </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3555,6 +3569,9 @@
       <c r="B10" s="1">
         <v>40</v>
       </c>
+      <c r="C10" s="1">
+        <v>1813</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
         <v>6</v>
@@ -3562,7 +3579,9 @@
       <c r="F10" s="1">
         <v>40</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>1544</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
         <v>6</v>
@@ -3570,7 +3589,9 @@
       <c r="J10" s="1">
         <v>40</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>1227</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" t="s">
         <v>6</v>
@@ -3578,7 +3599,9 @@
       <c r="N10" s="1">
         <v>40</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1">
+        <v>901</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3587,6 +3610,9 @@
       <c r="B11" s="1">
         <v>2500</v>
       </c>
+      <c r="C11" s="1">
+        <v>4213</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
         <v>7</v>
@@ -3594,7 +3620,9 @@
       <c r="F11" s="1">
         <v>2000</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>3454</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
         <v>7</v>
@@ -3602,7 +3630,9 @@
       <c r="J11" s="1">
         <v>1500</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>2658</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
         <v>7</v>
@@ -3610,7 +3640,9 @@
       <c r="N11" s="1">
         <v>1000</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1">
+        <v>1839</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3875,6 +3907,9 @@
       <c r="B19" s="1">
         <v>30</v>
       </c>
+      <c r="C19" s="1">
+        <v>1593</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
         <v>6</v>
@@ -3882,7 +3917,9 @@
       <c r="F19" s="1">
         <v>30</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1433</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
         <v>6</v>
@@ -3890,7 +3927,9 @@
       <c r="J19" s="1">
         <v>30</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>1088</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" t="s">
         <v>6</v>
@@ -3898,7 +3937,9 @@
       <c r="N19" s="1">
         <v>30</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1">
+        <v>805</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3907,6 +3948,9 @@
       <c r="B20" s="1">
         <v>2500</v>
       </c>
+      <c r="C20" s="1">
+        <v>3977</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
         <v>7</v>
@@ -3914,7 +3958,9 @@
       <c r="F20" s="1">
         <v>2000</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>3340</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" t="s">
         <v>7</v>
@@ -3922,7 +3968,9 @@
       <c r="J20" s="1">
         <v>1500</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>2515</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" t="s">
         <v>7</v>
@@ -3930,7 +3978,9 @@
       <c r="N20" s="1">
         <v>1000</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1">
+        <v>1744</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -4195,6 +4245,9 @@
       <c r="B28" s="1">
         <v>20</v>
       </c>
+      <c r="C28" s="1">
+        <v>1045</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
         <v>6</v>
@@ -4202,7 +4255,9 @@
       <c r="F28" s="1">
         <v>20</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>714</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" t="s">
         <v>6</v>
@@ -4210,7 +4265,9 @@
       <c r="J28" s="1">
         <v>20</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>592</v>
+      </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4220,6 +4277,9 @@
       <c r="B29" s="1">
         <v>1500</v>
       </c>
+      <c r="C29" s="1">
+        <v>2462</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
         <v>7</v>
@@ -4227,7 +4287,9 @@
       <c r="F29" s="1">
         <v>1000</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>1637</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" t="s">
         <v>7</v>
@@ -4235,7 +4297,9 @@
       <c r="J29" s="1">
         <v>750</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1">
+        <v>1281</v>
+      </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4448,6 +4512,9 @@
       <c r="B37" s="1">
         <v>15</v>
       </c>
+      <c r="C37" s="1">
+        <v>673</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
         <v>6</v>
@@ -4455,7 +4522,9 @@
       <c r="F37" s="1">
         <v>15</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1">
+        <v>521</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" t="s">
         <v>6</v>
@@ -4463,7 +4532,9 @@
       <c r="J37" s="1">
         <v>15</v>
       </c>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1">
+        <v>395</v>
+      </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -4473,6 +4544,9 @@
       <c r="B38" s="1">
         <v>1000</v>
       </c>
+      <c r="C38" s="1">
+        <v>1598</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
         <v>7</v>
@@ -4480,7 +4554,9 @@
       <c r="F38" s="1">
         <v>750</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1">
+        <v>1207</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" t="s">
         <v>7</v>
@@ -4488,7 +4564,9 @@
       <c r="J38" s="1">
         <v>500</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1">
+        <v>855</v>
+      </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -4701,6 +4779,9 @@
       <c r="B46" s="1">
         <v>10</v>
       </c>
+      <c r="C46" s="1">
+        <v>350</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
         <v>6</v>
@@ -4708,7 +4789,9 @@
       <c r="F46" s="1">
         <v>10</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1">
+        <v>180</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" t="s">
         <v>6</v>
@@ -4716,7 +4799,9 @@
       <c r="J46" s="1">
         <v>10</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1">
+        <v>97</v>
+      </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -4726,6 +4811,9 @@
       <c r="B47" s="1">
         <v>500</v>
       </c>
+      <c r="C47" s="1">
+        <v>794</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
         <v>7</v>
@@ -4733,7 +4821,9 @@
       <c r="F47" s="1">
         <v>200</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>359</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" t="s">
         <v>7</v>
@@ -4741,7 +4831,9 @@
       <c r="J47" s="1">
         <v>100</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1">
+        <v>180</v>
+      </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
